--- a/Cojinautos_Servicios.xlsx
+++ b/Cojinautos_Servicios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\Bases de datos 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2EF501-571A-4B66-85CB-1333F9ACEBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +84,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,14 +134,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,9 +164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,9 +204,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,7 +241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,351 +491,355 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>101</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>45332</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>300000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>102</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>45352</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>450000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>103</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>45392</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>150000</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>104</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>45417</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>320000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>105</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>45458</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>470000</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>106</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>45474</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>160000</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>107</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>45514</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>310000</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>108</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>45524</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>460000</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>109</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>45529</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>170000</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>110</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>45534</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>330000</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>111</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>45366</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>480000</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>112</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>45383</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>180000</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>113</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>45432</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>340000</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>114</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>45453</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>490000</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>115</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>45488</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>190000</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>